--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnatello\Documents\GitHub\armado-tesina\codigo\datasets\datasets_aumentados\logs\pcsmote\por_muestras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0596229D-83C0-4F57-B75A-01D080BB614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047392DE-6937-4978-8E76-3841F4BC82B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,22 +36,22 @@
     <t>clase_objetivo</t>
   </si>
   <si>
-    <t>is_filtrada</t>
+    <t>es_semilla_valida</t>
   </si>
   <si>
     <t>k</t>
   </si>
   <si>
-    <t>percentil_dist</t>
+    <t>valor_percentil_dist</t>
   </si>
   <si>
-    <t>percentil_densidad</t>
+    <t>valor_umbral_densidad</t>
   </si>
   <si>
-    <t>percentil_entropia</t>
+    <t>valor_percentil_entropia</t>
   </si>
   <si>
-    <t>percentil_riesgo</t>
+    <t>valor_percentil_riesgo</t>
   </si>
   <si>
     <t>umbral_densidad</t>
@@ -203,16 +203,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2D7D9"/>
-          <bgColor rgb="FFF2D7D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -513,14 +504,13 @@
   <dimension ref="A1:X1317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -83864,11 +83854,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:X1317">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D2=FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>